--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>2527.348344084264</v>
+        <v>12096.53533337286</v>
       </c>
       <c r="R2">
-        <v>2527.348344084264</v>
+        <v>108868.8180003557</v>
       </c>
       <c r="S2">
-        <v>0.01473859535539868</v>
+        <v>0.04172184662223347</v>
       </c>
       <c r="T2">
-        <v>0.01473859535539868</v>
+        <v>0.04172184662223347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>4653.163925283898</v>
+        <v>19928.00377405054</v>
       </c>
       <c r="R3">
-        <v>4653.163925283898</v>
+        <v>179352.0339664548</v>
       </c>
       <c r="S3">
-        <v>0.02713559465501657</v>
+        <v>0.06873316152389551</v>
       </c>
       <c r="T3">
-        <v>0.02713559465501657</v>
+        <v>0.06873316152389553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>1766.553492919487</v>
+        <v>7994.871209261602</v>
       </c>
       <c r="R4">
-        <v>1766.553492919487</v>
+        <v>71953.84088335441</v>
       </c>
       <c r="S4">
-        <v>0.01030191076222233</v>
+        <v>0.02757490315735857</v>
       </c>
       <c r="T4">
-        <v>0.01030191076222233</v>
+        <v>0.02757490315735857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>4009.41613867582</v>
+        <v>17637.78437498195</v>
       </c>
       <c r="R5">
-        <v>4009.41613867582</v>
+        <v>158740.0593748376</v>
       </c>
       <c r="S5">
-        <v>0.02338148685267966</v>
+        <v>0.06083402512939531</v>
       </c>
       <c r="T5">
-        <v>0.02338148685267966</v>
+        <v>0.06083402512939531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>11615.97960025512</v>
+        <v>13114.86995027745</v>
       </c>
       <c r="R6">
-        <v>11615.97960025512</v>
+        <v>118033.829552497</v>
       </c>
       <c r="S6">
-        <v>0.06774025566576897</v>
+        <v>0.04523415816646449</v>
       </c>
       <c r="T6">
-        <v>0.06774025566576897</v>
+        <v>0.04523415816646449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>21386.46908696124</v>
+        <v>21605.62265661883</v>
       </c>
       <c r="R7">
-        <v>21386.46908696124</v>
+        <v>194450.6039095695</v>
       </c>
       <c r="S7">
-        <v>0.1247182703133364</v>
+        <v>0.07451939334814142</v>
       </c>
       <c r="T7">
-        <v>0.1247182703133364</v>
+        <v>0.07451939334814144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>8119.280187293415</v>
+        <v>8667.911372061246</v>
       </c>
       <c r="R8">
-        <v>8119.280187293415</v>
+        <v>78011.2023485512</v>
       </c>
       <c r="S8">
-        <v>0.04734875013874756</v>
+        <v>0.02989626854579827</v>
       </c>
       <c r="T8">
-        <v>0.04734875013874756</v>
+        <v>0.02989626854579828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>18427.73125628114</v>
+        <v>19122.60344916679</v>
       </c>
       <c r="R9">
-        <v>18427.73125628114</v>
+        <v>172103.4310425011</v>
       </c>
       <c r="S9">
-        <v>0.1074639651237981</v>
+        <v>0.06595527612958839</v>
       </c>
       <c r="T9">
-        <v>0.1074639651237981</v>
+        <v>0.0659552761295884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>15788.04013938215</v>
+        <v>31671.79956202456</v>
       </c>
       <c r="R10">
-        <v>15788.04013938215</v>
+        <v>285046.196058221</v>
       </c>
       <c r="S10">
-        <v>0.0920702267314313</v>
+        <v>0.1092383833188427</v>
       </c>
       <c r="T10">
-        <v>0.0920702267314313</v>
+        <v>0.1092383833188428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>29067.75356055066</v>
+        <v>52176.57153959746</v>
       </c>
       <c r="R11">
-        <v>29067.75356055066</v>
+        <v>469589.1438563772</v>
       </c>
       <c r="S11">
-        <v>0.169512785454446</v>
+        <v>0.1799608611106412</v>
       </c>
       <c r="T11">
-        <v>0.169512785454446</v>
+        <v>0.1799608611106412</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>11035.44650655751</v>
+        <v>20932.60189678887</v>
       </c>
       <c r="R12">
-        <v>11035.44650655751</v>
+        <v>188393.4170710999</v>
       </c>
       <c r="S12">
-        <v>0.06435479343676744</v>
+        <v>0.07219809488198177</v>
       </c>
       <c r="T12">
-        <v>0.06435479343676744</v>
+        <v>0.07219809488198178</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>25046.33881635983</v>
+        <v>46180.19590299312</v>
       </c>
       <c r="R13">
-        <v>25046.33881635983</v>
+        <v>415621.7631269382</v>
       </c>
       <c r="S13">
-        <v>0.1460613270080489</v>
+        <v>0.1592789172560659</v>
       </c>
       <c r="T13">
-        <v>0.1460613270080489</v>
+        <v>0.1592789172560659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>3517.930967713775</v>
+        <v>3944.995331562773</v>
       </c>
       <c r="R14">
-        <v>3517.930967713775</v>
+        <v>35504.95798406496</v>
       </c>
       <c r="S14">
-        <v>0.02051532039211082</v>
+        <v>0.01360658119145889</v>
       </c>
       <c r="T14">
-        <v>0.02051532039211082</v>
+        <v>0.01360658119145889</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>6476.950242700314</v>
+        <v>6499.041228698195</v>
       </c>
       <c r="R15">
-        <v>6476.950242700314</v>
+        <v>58491.37105828376</v>
       </c>
       <c r="S15">
-        <v>0.03777126686459981</v>
+        <v>0.02241567472524489</v>
       </c>
       <c r="T15">
-        <v>0.03777126686459981</v>
+        <v>0.0224156747252449</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>2458.946054433246</v>
+        <v>2607.335797215289</v>
       </c>
       <c r="R16">
-        <v>2458.946054433246</v>
+        <v>23466.0221749376</v>
       </c>
       <c r="S16">
-        <v>0.01433969756558316</v>
+        <v>0.008992894347520855</v>
       </c>
       <c r="T16">
-        <v>0.01433969756558316</v>
+        <v>0.008992894347520857</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>5580.888455568112</v>
+        <v>5752.141014001689</v>
       </c>
       <c r="R17">
-        <v>5580.888455568112</v>
+        <v>51769.2691260152</v>
       </c>
       <c r="S17">
-        <v>0.03254575368004428</v>
+        <v>0.01983956054536823</v>
       </c>
       <c r="T17">
-        <v>0.03254575368004428</v>
+        <v>0.01983956054536823</v>
       </c>
     </row>
   </sheetData>
